--- a/data/trans_camb/POLIPATOLOGIA_Lim_2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_2-Clase-trans_camb.xlsx
@@ -618,13 +618,13 @@
         <v>1.754102998042428</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11.50688324304471</v>
+        <v>11.5068832430447</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9097241291270208</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.166649927337314</v>
+        <v>6.166649927337311</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.778682503305633</v>
+        <v>-4.488108090369509</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.145274241666852</v>
+        <v>-2.843507670818348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.774175889232093</v>
+        <v>-3.600804798234594</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.92264130920391</v>
+        <v>5.866251108568622</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.784147990524303</v>
+        <v>-2.895486072444808</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.725594384275067</v>
+        <v>2.798777212281157</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.781792766625334</v>
+        <v>5.021118789654181</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.212123157755026</v>
+        <v>5.551632075339073</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.170678195590819</v>
+        <v>7.065318778816196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.06051962180382</v>
+        <v>16.17615042382472</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.300512853048268</v>
+        <v>4.393157576134247</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.449771708930992</v>
+        <v>9.169074768099964</v>
       </c>
     </row>
     <row r="7">
@@ -696,13 +696,13 @@
         <v>0.1469738289092296</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.9641456008735623</v>
+        <v>0.964145600873562</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07604638016290953</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5154874864711807</v>
+        <v>0.5154874864711805</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3289827637448435</v>
+        <v>-0.3210223205130706</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2196211074203219</v>
+        <v>-0.1948850491553988</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2762245418954219</v>
+        <v>-0.2374921775666313</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3723406343454743</v>
+        <v>0.3640197455671251</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2072059565171596</v>
+        <v>-0.2111275946714713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1934139166463201</v>
+        <v>0.2050389994899821</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5017622241016083</v>
+        <v>0.5170356084063321</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5555499197726741</v>
+        <v>0.5829446043917825</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7754138695947574</v>
+        <v>0.7487659415529294</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.79363887142893</v>
+        <v>1.776266278362198</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4190803605473061</v>
+        <v>0.43098126977795</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9604731025856212</v>
+        <v>0.9239022000736464</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-2.760863131167976</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.869704964344765</v>
+        <v>4.869704964344762</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.219466393767646</v>
+        <v>-5.995794181557226</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.284001678996249</v>
+        <v>-3.202396549590451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.05693548215456</v>
+        <v>-10.12536114787532</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.656926956339044</v>
+        <v>2.8311584943939</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.610592635409539</v>
+        <v>-7.032897389938035</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.25255466751143</v>
+        <v>1.068737455546249</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.385072239673502</v>
+        <v>4.027472096727047</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.813257147265202</v>
+        <v>6.155071865329344</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9546728942922988</v>
+        <v>1.456642404796755</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.10884176415305</v>
+        <v>13.97641685469249</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8315059475430341</v>
+        <v>1.493367130113554</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.50249343580265</v>
+        <v>8.056449796874308</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>-0.1732495870603115</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3055835563356467</v>
+        <v>0.3055835563356465</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.425620157668906</v>
+        <v>-0.3901407698131404</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2096383092042661</v>
+        <v>-0.204794907742027</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4915597703539255</v>
+        <v>-0.4663775712996293</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1234313086928791</v>
+        <v>0.1239044497389781</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3588731862935108</v>
+        <v>-0.3900273330990088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07040398109233609</v>
+        <v>0.05947196646735962</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3306907824680771</v>
+        <v>0.3846206721357442</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5461662273329082</v>
+        <v>0.6244681088127515</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.06195041539361015</v>
+        <v>0.08576653746187225</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9502693191872021</v>
+        <v>0.8870178038725018</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06350384017206706</v>
+        <v>0.1169306589040261</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6159594851729445</v>
+        <v>0.5807743489956454</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>-6.086510069278534</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-4.192631405793323</v>
+        <v>-4.192631405793329</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>2.860851238639911</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.02725738174857</v>
+        <v>-10.51830009601596</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.008572714869823</v>
+        <v>-9.191933105849955</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.087762971366953</v>
+        <v>-6.716523173731328</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.242380608434284</v>
+        <v>1.610959399080621</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.392002686492742</v>
+        <v>-8.521385980960602</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.715269186241485</v>
+        <v>-4.239518799934897</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.047178082614588</v>
+        <v>-1.654497285049826</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7037339831200915</v>
+        <v>0.4706595079330408</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.06526659523528</v>
+        <v>12.64292873687228</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.99272780339982</v>
+        <v>17.86999877940219</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.0402787995448168</v>
+        <v>-0.02030710275675583</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.883677384334562</v>
+        <v>4.174478348090911</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>-0.2721323732846815</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.1874556555036917</v>
+        <v>-0.187455655503692</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.09932915281208875</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4486227889332507</v>
+        <v>-0.4220875767624039</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3563107157113407</v>
+        <v>-0.3697002252951009</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2232244139819256</v>
+        <v>-0.2036554756872194</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03094635950149406</v>
+        <v>0.04537246214618625</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3220917458059764</v>
+        <v>-0.325001234146384</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1749706357614438</v>
+        <v>-0.1659253154266439</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.05419525871384482</v>
+        <v>-0.05887817795684749</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.03820407448131958</v>
+        <v>0.02321857472118278</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4658221108716237</v>
+        <v>0.5286811476056696</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7393646226205152</v>
+        <v>0.7550676587709557</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.001247678872514015</v>
+        <v>0.0009970885078207309</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.177786074868439</v>
+        <v>0.1903825948761704</v>
       </c>
     </row>
     <row r="22">
@@ -1098,13 +1098,13 @@
         <v>-1.255254848931461</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8.071874224707368</v>
+        <v>8.071874224707361</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-2.31473293803203</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.873483036029444</v>
+        <v>4.87348303602945</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.210401081406292</v>
+        <v>-6.446703303277832</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.401854876043468</v>
+        <v>-0.8581728951748201</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.687850890471879</v>
+        <v>-5.556027101789027</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.91016039008179</v>
+        <v>3.866310980348395</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.887403876913296</v>
+        <v>-5.248840856342025</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.261724275327239</v>
+        <v>2.213080777778284</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2815988491396327</v>
+        <v>-0.01633642854175327</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.852552900129703</v>
+        <v>5.918585543041446</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.777935975385109</v>
+        <v>3.24020585123078</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.16326262385521</v>
+        <v>12.18999067963436</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.133825276507005</v>
+        <v>0.3089132367614305</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.562032138243318</v>
+        <v>7.421950541334285</v>
       </c>
     </row>
     <row r="25">
@@ -1176,13 +1176,13 @@
         <v>-0.06021960376545189</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.3872401432029703</v>
+        <v>0.38724014320297</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1148277008305722</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2417604393446074</v>
+        <v>0.2417604393446077</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2924954444039348</v>
+        <v>-0.2996825852055228</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06430183539898383</v>
+        <v>-0.04003148186552028</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2379757917674143</v>
+        <v>-0.2371533949208939</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1665381530026724</v>
+        <v>0.1686154506149564</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2270808736612667</v>
+        <v>-0.2422893426303566</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1066615790067007</v>
+        <v>0.09959646287248201</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.01721326305347648</v>
+        <v>-0.0001908530764825736</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3249597889723109</v>
+        <v>0.3325772656471991</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1534388380185891</v>
+        <v>0.1744648269665487</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6679254001992059</v>
+        <v>0.6703162293300239</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.007103966775236369</v>
+        <v>0.01589757219928039</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4082581587557408</v>
+        <v>0.3951210686626076</v>
       </c>
     </row>
     <row r="28">
@@ -1252,7 +1252,7 @@
         <v>1.707292785716116</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2.948251564076934</v>
+        <v>2.948251564076931</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-2.966052967476884</v>
@@ -1264,7 +1264,7 @@
         <v>-1.85090365860261</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.799533314413472</v>
+        <v>2.799533314413466</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.200132211571133</v>
+        <v>-2.979279582091853</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.987834195606139</v>
+        <v>-2.318593577420677</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.7771038533704</v>
+        <v>-7.804892861908922</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.247015889688488</v>
+        <v>-2.002934444675949</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.780427386754846</v>
+        <v>-5.383352902911892</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.8193614100470455</v>
+        <v>-0.6403894294050899</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.670947032010348</v>
+        <v>6.444797842239161</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.970463501090006</v>
+        <v>7.409944059228475</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.202654270305903</v>
+        <v>1.993498884048653</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.173274771584355</v>
+        <v>6.944156444166747</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.576797437705787</v>
+        <v>2.142893701972157</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.108056332510403</v>
+        <v>6.356340590855454</v>
       </c>
     </row>
     <row r="31">
@@ -1330,7 +1330,7 @@
         <v>0.09219350014987625</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.1592050486528533</v>
+        <v>0.1592050486528531</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.08032289731881086</v>
@@ -1342,7 +1342,7 @@
         <v>-0.06266158206681519</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09477704888343212</v>
+        <v>0.09477704888343193</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1551109896619505</v>
+        <v>-0.1465835478577065</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.100922411782075</v>
+        <v>-0.1126607930679479</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2005150227959318</v>
+        <v>-0.1982465481765482</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.0535353147799447</v>
+        <v>-0.049639044690086</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1827750470425792</v>
+        <v>-0.1708177422465098</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.02710366121826077</v>
+        <v>-0.01968608392036025</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4322509333245825</v>
+        <v>0.4217355031683144</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4808138327105221</v>
+        <v>0.4579604801935049</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.06470536472093172</v>
+        <v>0.05855817284242808</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2123398290252092</v>
+        <v>0.199739240579396</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.05698719509592848</v>
+        <v>0.07792130654937587</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2221826454666995</v>
+        <v>0.2315441132667413</v>
       </c>
     </row>
     <row r="34">
@@ -1412,13 +1412,13 @@
         <v>-0.2579595334044286</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>6.744746852897535</v>
+        <v>6.744746852897536</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-6.381965093001963</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>-2.05750850875267</v>
+        <v>-2.057508508752659</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-5.645608313382267</v>
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.02821357586451</v>
+        <v>-3.962670207813455</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.383508122331852</v>
+        <v>1.296135969548198</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-10.40207484740589</v>
+        <v>-10.36461364883784</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.366135417864991</v>
+        <v>-6.364488645786151</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.153429538199299</v>
+        <v>-9.316155913181108</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.023492816615114</v>
+        <v>-5.038252779089404</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.71529221795045</v>
+        <v>2.380613245321617</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>14.48147603747977</v>
+        <v>14.43408081211832</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-1.933227279926767</v>
+        <v>-2.161329287904055</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.988027781344357</v>
+        <v>2.061693607482789</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-2.134474421623854</v>
+        <v>-2.025620747053338</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.576276012868919</v>
+        <v>2.576963062329584</v>
       </c>
     </row>
     <row r="37">
@@ -1490,13 +1490,13 @@
         <v>-0.08420034085078103</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>2.201546794844897</v>
+        <v>2.201546794844898</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.1690766189713195</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>-0.05450932073352786</v>
+        <v>-0.05450932073352757</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.1819970899326724</v>
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7799627667122172</v>
+        <v>-0.7812304930213312</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.06825734387165225</v>
+        <v>-0.001170977382046532</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2597777636054283</v>
+        <v>-0.264790745149283</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.158770887197496</v>
+        <v>-0.160332154561195</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2806722582030688</v>
+        <v>-0.2873967095059188</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1552469491019034</v>
+        <v>-0.1528246653117675</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.195288849802859</v>
+        <v>1.635240027096952</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>8.467721403523241</v>
+        <v>9.372388133595724</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.05216011341868028</v>
+        <v>-0.06339793734559365</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.05492767511460894</v>
+        <v>0.06013929071428362</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.07470355252959655</v>
+        <v>-0.06752262399321064</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.08864926675925315</v>
+        <v>0.08921275365555036</v>
       </c>
     </row>
     <row r="40">
@@ -1578,13 +1578,13 @@
         <v>-3.544994638296906</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3.385958930064648</v>
+        <v>3.385958930064642</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>-2.775391366040603</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.394142473142097</v>
+        <v>2.394142473142091</v>
       </c>
     </row>
     <row r="41">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.87076073245652</v>
+        <v>-3.725823224979773</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.6807042600805154</v>
+        <v>-0.5597402936264801</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.726154656842191</v>
+        <v>-5.736671982356485</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.53371297492524</v>
+        <v>1.295606656133091</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.123828242235686</v>
+        <v>-4.279190494713409</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.081414313664348</v>
+        <v>0.887396235110516</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.2742833131474601</v>
+        <v>-0.09333499764134524</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.047831455953971</v>
+        <v>3.234901794096275</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.341987838657219</v>
+        <v>-1.381206063987358</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.563965480575928</v>
+        <v>5.473026503908924</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-1.190161024923049</v>
+        <v>-1.418100849085147</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.865051748849688</v>
+        <v>3.874446677706637</v>
       </c>
     </row>
     <row r="43">
@@ -1656,13 +1656,13 @@
         <v>-0.1214226068079735</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.1159753403832236</v>
+        <v>0.1159753403832234</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.1196614337006975</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1032238279348044</v>
+        <v>0.1032238279348042</v>
       </c>
     </row>
     <row r="44">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2172538886454835</v>
+        <v>-0.2065678899527664</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.03924515329027112</v>
+        <v>-0.03106162902960122</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1879416301515287</v>
+        <v>-0.1888098819095376</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.05073140409542164</v>
+        <v>0.04256808428358991</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1720493473305514</v>
+        <v>-0.1792576460243373</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04521818146403633</v>
+        <v>0.03859102527421481</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.01698244830411759</v>
+        <v>-0.006707010525439099</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1913354919404782</v>
+        <v>0.2066107246391016</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.04773714764043185</v>
+        <v>-0.0491779236728264</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.19761891659739</v>
+        <v>0.1946440997832837</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.05314970207647231</v>
+        <v>-0.06387083028336975</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1727831637895119</v>
+        <v>0.1739525080411649</v>
       </c>
     </row>
     <row r="46">
